--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-funcionario.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-funcionario.xlsx
@@ -457,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -498,24 +498,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -583,11 +565,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -771,6 +774,56 @@
       </spPr>
     </pic>
     <clientData fLocksWithSheet="0"/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
   </oneCellAnchor>
 </wsDr>
 </file>
@@ -980,7 +1033,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -993,109 +1046,109 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="6">
-      <c r="A1" s="61" t="n"/>
-      <c r="B1" s="62" t="n"/>
-      <c r="C1" s="63" t="inlineStr">
+      <c r="A1" s="62" t="n"/>
+      <c r="B1" s="63" t="n"/>
+      <c r="C1" s="64" t="inlineStr">
         <is>
           <t>Registro da Qualidade</t>
         </is>
       </c>
-      <c r="D1" s="64" t="n"/>
-      <c r="E1" s="64" t="n"/>
-      <c r="F1" s="64" t="n"/>
-      <c r="G1" s="62" t="n"/>
-      <c r="H1" s="65" t="inlineStr">
+      <c r="D1" s="65" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="F1" s="65" t="n"/>
+      <c r="G1" s="63" t="n"/>
+      <c r="H1" s="66" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
-      <c r="I1" s="66" t="n"/>
+      <c r="I1" s="67" t="n"/>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>RQ CQ-038-000</t>
         </is>
       </c>
-      <c r="K1" s="61" t="n"/>
+      <c r="K1" s="62" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="6">
-      <c r="A2" s="67" t="n"/>
-      <c r="B2" s="68" t="n"/>
-      <c r="C2" s="69" t="n"/>
-      <c r="D2" s="70" t="n"/>
-      <c r="E2" s="70" t="n"/>
-      <c r="F2" s="70" t="n"/>
-      <c r="G2" s="71" t="n"/>
-      <c r="H2" s="65" t="inlineStr">
+      <c r="A2" s="68" t="n"/>
+      <c r="B2" s="69" t="n"/>
+      <c r="C2" s="70" t="n"/>
+      <c r="D2" s="71" t="n"/>
+      <c r="E2" s="71" t="n"/>
+      <c r="F2" s="71" t="n"/>
+      <c r="G2" s="72" t="n"/>
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Data de Emissão:</t>
         </is>
       </c>
-      <c r="I2" s="66" t="n"/>
+      <c r="I2" s="67" t="n"/>
       <c r="J2" s="3" t="n">
         <v>45293</v>
       </c>
-      <c r="K2" s="72" t="n"/>
+      <c r="K2" s="73" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="6">
-      <c r="A3" s="67" t="n"/>
-      <c r="B3" s="68" t="n"/>
-      <c r="C3" s="73" t="inlineStr">
+      <c r="A3" s="68" t="n"/>
+      <c r="B3" s="69" t="n"/>
+      <c r="C3" s="74" t="inlineStr">
         <is>
           <t>Controle da Qualidade</t>
         </is>
       </c>
-      <c r="D3" s="64" t="n"/>
-      <c r="E3" s="64" t="n"/>
-      <c r="F3" s="64" t="n"/>
-      <c r="G3" s="62" t="n"/>
-      <c r="H3" s="65" t="inlineStr">
+      <c r="D3" s="65" t="n"/>
+      <c r="E3" s="65" t="n"/>
+      <c r="F3" s="65" t="n"/>
+      <c r="G3" s="63" t="n"/>
+      <c r="H3" s="66" t="inlineStr">
         <is>
           <t>Data da Última Revisão:</t>
         </is>
       </c>
-      <c r="I3" s="66" t="n"/>
+      <c r="I3" s="67" t="n"/>
       <c r="J3" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K3" s="72" t="n"/>
+      <c r="K3" s="73" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="6">
-      <c r="A4" s="74" t="n"/>
-      <c r="B4" s="75" t="n"/>
-      <c r="C4" s="74" t="n"/>
-      <c r="D4" s="76" t="n"/>
-      <c r="E4" s="76" t="n"/>
-      <c r="F4" s="76" t="n"/>
-      <c r="G4" s="75" t="n"/>
-      <c r="H4" s="77" t="inlineStr">
+      <c r="A4" s="75" t="n"/>
+      <c r="B4" s="76" t="n"/>
+      <c r="C4" s="75" t="n"/>
+      <c r="D4" s="77" t="n"/>
+      <c r="E4" s="77" t="n"/>
+      <c r="F4" s="77" t="n"/>
+      <c r="G4" s="76" t="n"/>
+      <c r="H4" s="78" t="inlineStr">
         <is>
           <t>Página:</t>
         </is>
       </c>
-      <c r="I4" s="75" t="n"/>
+      <c r="I4" s="76" t="n"/>
       <c r="J4" s="4" t="n">
         <v>45658</v>
       </c>
-      <c r="K4" s="78" t="n"/>
+      <c r="K4" s="79" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="79" t="inlineStr">
+      <c r="A5" s="80" t="inlineStr">
         <is>
           <t>TERMO DE RESPONSABILIDADE EQUIPAMENTOS DE MEDIÇÃO CALIBRADOS</t>
         </is>
       </c>
-      <c r="B5" s="70" t="n"/>
-      <c r="C5" s="70" t="n"/>
-      <c r="D5" s="70" t="n"/>
-      <c r="E5" s="70" t="n"/>
-      <c r="F5" s="70" t="n"/>
-      <c r="G5" s="70" t="n"/>
-      <c r="H5" s="70" t="n"/>
-      <c r="I5" s="70" t="n"/>
-      <c r="J5" s="70" t="n"/>
-      <c r="K5" s="71" t="n"/>
+      <c r="B5" s="71" t="n"/>
+      <c r="C5" s="71" t="n"/>
+      <c r="D5" s="71" t="n"/>
+      <c r="E5" s="71" t="n"/>
+      <c r="F5" s="71" t="n"/>
+      <c r="G5" s="71" t="n"/>
+      <c r="H5" s="71" t="n"/>
+      <c r="I5" s="71" t="n"/>
+      <c r="J5" s="71" t="n"/>
+      <c r="K5" s="72" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="6">
       <c r="A6" s="15" t="inlineStr">
@@ -1103,28 +1156,28 @@
           <t>Colaborador:</t>
         </is>
       </c>
-      <c r="B6" s="58" t="inlineStr">
+      <c r="B6" s="52" t="inlineStr">
         <is>
           <t>funcionario</t>
         </is>
       </c>
-      <c r="C6" s="80" t="n"/>
-      <c r="D6" s="80" t="n"/>
-      <c r="E6" s="80" t="n"/>
-      <c r="F6" s="66" t="n"/>
+      <c r="C6" s="81" t="n"/>
+      <c r="D6" s="81" t="n"/>
+      <c r="E6" s="81" t="n"/>
+      <c r="F6" s="67" t="n"/>
       <c r="G6" s="15" t="inlineStr">
         <is>
           <t>Matrícula:</t>
         </is>
       </c>
-      <c r="H6" s="58" t="inlineStr">
+      <c r="H6" s="52" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I6" s="80" t="n"/>
-      <c r="J6" s="80" t="n"/>
-      <c r="K6" s="66" t="n"/>
+      <c r="I6" s="81" t="n"/>
+      <c r="J6" s="81" t="n"/>
+      <c r="K6" s="67" t="n"/>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="6">
       <c r="A7" s="15" t="inlineStr">
@@ -1132,103 +1185,103 @@
           <t>Função:</t>
         </is>
       </c>
-      <c r="B7" s="58" t="n"/>
-      <c r="C7" s="80" t="n"/>
-      <c r="D7" s="80" t="n"/>
-      <c r="E7" s="80" t="n"/>
-      <c r="F7" s="66" t="n"/>
+      <c r="B7" s="52" t="n"/>
+      <c r="C7" s="81" t="n"/>
+      <c r="D7" s="81" t="n"/>
+      <c r="E7" s="81" t="n"/>
+      <c r="F7" s="67" t="n"/>
       <c r="G7" s="15" t="inlineStr">
         <is>
           <t>Setor alocado:</t>
         </is>
       </c>
-      <c r="H7" s="58" t="inlineStr">
+      <c r="H7" s="52" t="inlineStr">
         <is>
           <t>Corte e estamparia</t>
         </is>
       </c>
-      <c r="I7" s="80" t="n"/>
-      <c r="J7" s="80" t="n"/>
-      <c r="K7" s="66" t="n"/>
+      <c r="I7" s="81" t="n"/>
+      <c r="J7" s="81" t="n"/>
+      <c r="K7" s="67" t="n"/>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="6">
-      <c r="A8" s="81" t="inlineStr">
+      <c r="A8" s="82" t="inlineStr">
         <is>
           <t xml:space="preserve">Por meio deste documento, me responsabilizo pelo correto manuseio, limpeza e armazenamento dos equipamentos de medição fornecidos. Estando passível de ressarcimento, diante de demonstração de má uso ou perda do material </t>
         </is>
       </c>
-      <c r="B8" s="64" t="n"/>
-      <c r="C8" s="64" t="n"/>
-      <c r="D8" s="64" t="n"/>
-      <c r="E8" s="64" t="n"/>
-      <c r="F8" s="64" t="n"/>
-      <c r="G8" s="64" t="n"/>
-      <c r="H8" s="64" t="n"/>
-      <c r="I8" s="64" t="n"/>
-      <c r="J8" s="64" t="n"/>
-      <c r="K8" s="62" t="n"/>
+      <c r="B8" s="65" t="n"/>
+      <c r="C8" s="65" t="n"/>
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="65" t="n"/>
+      <c r="F8" s="65" t="n"/>
+      <c r="G8" s="65" t="n"/>
+      <c r="H8" s="65" t="n"/>
+      <c r="I8" s="65" t="n"/>
+      <c r="J8" s="65" t="n"/>
+      <c r="K8" s="63" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="6">
-      <c r="A9" s="67" t="n"/>
-      <c r="K9" s="68" t="n"/>
+      <c r="A9" s="68" t="n"/>
+      <c r="K9" s="69" t="n"/>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="6">
-      <c r="A10" s="67" t="n"/>
-      <c r="K10" s="68" t="n"/>
+      <c r="A10" s="68" t="n"/>
+      <c r="K10" s="69" t="n"/>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="6">
-      <c r="A11" s="38" t="n"/>
-      <c r="K11" s="39" t="n"/>
+      <c r="A11" s="32" t="n"/>
+      <c r="K11" s="33" t="n"/>
     </row>
     <row r="12" ht="38.25" customHeight="1" s="6">
-      <c r="A12" s="38" t="n"/>
-      <c r="C12" s="54" t="n"/>
-      <c r="D12" s="82" t="n"/>
-      <c r="E12" s="82" t="n"/>
-      <c r="G12" s="54" t="n"/>
-      <c r="H12" s="82" t="n"/>
-      <c r="I12" s="82" t="n"/>
-      <c r="K12" s="39" t="n"/>
+      <c r="A12" s="32" t="n"/>
+      <c r="C12" s="48" t="n"/>
+      <c r="D12" s="83" t="n"/>
+      <c r="E12" s="83" t="n"/>
+      <c r="G12" s="48" t="n"/>
+      <c r="H12" s="83" t="n"/>
+      <c r="I12" s="83" t="n"/>
+      <c r="K12" s="33" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="6">
-      <c r="A13" s="38" t="n"/>
-      <c r="C13" s="60" t="inlineStr">
+      <c r="A13" s="32" t="n"/>
+      <c r="C13" s="56" t="inlineStr">
         <is>
           <t>Assinatura do Funcionário</t>
         </is>
       </c>
-      <c r="G13" s="59" t="inlineStr">
+      <c r="G13" s="55" t="inlineStr">
         <is>
           <t>Assinatura do Supervisor da área</t>
         </is>
       </c>
-      <c r="K13" s="39" t="n"/>
+      <c r="K13" s="33" t="n"/>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="6">
-      <c r="A14" s="38" t="n"/>
-      <c r="K14" s="39" t="n"/>
+      <c r="A14" s="32" t="n"/>
+      <c r="K14" s="33" t="n"/>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="6">
-      <c r="A15" s="38" t="n"/>
+      <c r="A15" s="32" t="n"/>
       <c r="B15" s="14" t="inlineStr">
         <is>
           <t>Data: ___/___/_____</t>
         </is>
       </c>
-      <c r="K15" s="39" t="n"/>
+      <c r="K15" s="33" t="n"/>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="6">
-      <c r="A16" s="41" t="n"/>
+      <c r="A16" s="35" t="n"/>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="7" t="n"/>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
       <c r="F16" s="7" t="n"/>
-      <c r="G16" s="33" t="n"/>
-      <c r="H16" s="33" t="n"/>
-      <c r="I16" s="33" t="n"/>
-      <c r="J16" s="33" t="n"/>
-      <c r="K16" s="34" t="n"/>
+      <c r="G16" s="27" t="n"/>
+      <c r="H16" s="27" t="n"/>
+      <c r="I16" s="27" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="28" t="n"/>
     </row>
     <row r="17" ht="12.75" customHeight="1" s="6">
       <c r="A17" s="16" t="inlineStr">
@@ -1236,19 +1289,19 @@
           <t>Data Entrega</t>
         </is>
       </c>
-      <c r="B17" s="83" t="inlineStr">
+      <c r="B17" s="84" t="inlineStr">
         <is>
           <t>Equipamento</t>
         </is>
       </c>
-      <c r="C17" s="84" t="n"/>
-      <c r="D17" s="85" t="n"/>
+      <c r="C17" s="85" t="n"/>
+      <c r="D17" s="86" t="n"/>
       <c r="E17" s="18" t="inlineStr">
         <is>
           <t>Identificação (TAG)</t>
         </is>
       </c>
-      <c r="F17" s="85" t="n"/>
+      <c r="F17" s="86" t="n"/>
       <c r="G17" s="19" t="inlineStr">
         <is>
           <t>Faixa Nominal</t>
@@ -1256,7 +1309,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>Motivo Devol.</t>
+          <t>Motivo</t>
         </is>
       </c>
       <c r="I17" s="8" t="inlineStr">
@@ -1264,17 +1317,17 @@
           <t>Data devol.</t>
         </is>
       </c>
-      <c r="J17" s="86" t="inlineStr">
+      <c r="J17" s="87" t="inlineStr">
         <is>
           <t>Rubrica do Empregado</t>
         </is>
       </c>
-      <c r="K17" s="87" t="n"/>
+      <c r="K17" s="88" t="n"/>
     </row>
     <row r="18" ht="57.75" customHeight="1" s="6">
       <c r="A18" s="17" t="inlineStr">
         <is>
-          <t>10/01/2025</t>
+          <t>20/01/2025</t>
         </is>
       </c>
       <c r="B18" s="17" t="inlineStr">
@@ -1282,39 +1335,64 @@
           <t>Paquímetro analógico</t>
         </is>
       </c>
-      <c r="C18" s="84" t="n"/>
-      <c r="D18" s="85" t="n"/>
+      <c r="C18" s="85" t="n"/>
+      <c r="D18" s="86" t="n"/>
       <c r="E18" s="17" t="inlineStr">
         <is>
-          <t>PAQ-004</t>
-        </is>
-      </c>
-      <c r="F18" s="85" t="n"/>
+          <t>PAQ-001</t>
+        </is>
+      </c>
+      <c r="F18" s="86" t="n"/>
       <c r="G18" s="18" t="inlineStr">
         <is>
-          <t>0 - 750</t>
-        </is>
-      </c>
-      <c r="H18" s="18" t="inlineStr">
-        <is>
-          <t>Primeira Entrega</t>
+          <t>0 - 600</t>
+        </is>
+      </c>
+      <c r="H18" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
         </is>
       </c>
       <c r="I18" s="17" t="n"/>
       <c r="J18" s="17" t="n"/>
-      <c r="K18" s="85" t="n"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1" s="6">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="7" t="n"/>
-      <c r="I19" s="7" t="n"/>
-      <c r="J19" s="7" t="n"/>
-      <c r="K19" s="7" t="n"/>
+      <c r="K18" s="86" t="n"/>
+    </row>
+    <row r="19" ht="57.75" customHeight="1" s="6">
+      <c r="A19" s="17" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="B19" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C19" s="85" t="n"/>
+      <c r="D19" s="86" t="n"/>
+      <c r="E19" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-001</t>
+        </is>
+      </c>
+      <c r="F19" s="86" t="n"/>
+      <c r="G19" s="18" t="inlineStr">
+        <is>
+          <t>0 - 600</t>
+        </is>
+      </c>
+      <c r="H19" s="61" t="inlineStr">
+        <is>
+          <t>devolução</t>
+        </is>
+      </c>
+      <c r="I19" s="17" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="J19" s="17" t="n"/>
+      <c r="K19" s="86" t="n"/>
     </row>
     <row r="20" ht="12.75" customHeight="1" s="6">
       <c r="A20" s="7" t="n"/>
@@ -1343,15 +1421,18 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" s="6"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="K1:K4"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="C3:G4"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C13:E13"/>

--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-funcionario.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-funcionario.xlsx
@@ -802,6 +802,31 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
       <col>3</col>
       <colOff>0</colOff>
       <row>11</row>
@@ -810,11 +835,11 @@
     <ext cx="952500" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1327,7 +1352,7 @@
     <row r="18" ht="57.75" customHeight="1" s="6">
       <c r="A18" s="17" t="inlineStr">
         <is>
-          <t>20/01/2025</t>
+          <t>03/02/2025</t>
         </is>
       </c>
       <c r="B18" s="17" t="inlineStr">
@@ -1339,18 +1364,18 @@
       <c r="D18" s="86" t="n"/>
       <c r="E18" s="17" t="inlineStr">
         <is>
-          <t>PAQ-001</t>
+          <t>PAQ-004</t>
         </is>
       </c>
       <c r="F18" s="86" t="n"/>
       <c r="G18" s="18" t="inlineStr">
         <is>
-          <t>0 - 600</t>
+          <t>0 - 750</t>
         </is>
       </c>
       <c r="H18" s="61" t="inlineStr">
         <is>
-          <t>Entrega</t>
+          <t>entrega</t>
         </is>
       </c>
       <c r="I18" s="17" t="n"/>
@@ -1360,7 +1385,7 @@
     <row r="19" ht="57.75" customHeight="1" s="6">
       <c r="A19" s="17" t="inlineStr">
         <is>
-          <t>24/01/2025</t>
+          <t>03/02/2025</t>
         </is>
       </c>
       <c r="B19" s="17" t="inlineStr">
@@ -1372,25 +1397,21 @@
       <c r="D19" s="86" t="n"/>
       <c r="E19" s="17" t="inlineStr">
         <is>
-          <t>PAQ-001</t>
+          <t>PAQ-003</t>
         </is>
       </c>
       <c r="F19" s="86" t="n"/>
       <c r="G19" s="18" t="inlineStr">
         <is>
-          <t>0 - 600</t>
+          <t>0 - 700, 0 - 750</t>
         </is>
       </c>
       <c r="H19" s="61" t="inlineStr">
         <is>
-          <t>devolução</t>
-        </is>
-      </c>
-      <c r="I19" s="17" t="inlineStr">
-        <is>
-          <t>24/01/2025</t>
-        </is>
-      </c>
+          <t>entrega</t>
+        </is>
+      </c>
+      <c r="I19" s="17" t="n"/>
       <c r="J19" s="17" t="n"/>
       <c r="K19" s="86" t="n"/>
     </row>

--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-funcionario.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-funcionario.xlsx
@@ -774,81 +774,6 @@
       </spPr>
     </pic>
     <clientData fLocksWithSheet="0"/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>18</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="952500" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
   </oneCellAnchor>
 </wsDr>
 </file>
@@ -1350,70 +1275,29 @@
       <c r="K17" s="88" t="n"/>
     </row>
     <row r="18" ht="57.75" customHeight="1" s="6">
-      <c r="A18" s="17" t="inlineStr">
-        <is>
-          <t>03/02/2025</t>
-        </is>
-      </c>
-      <c r="B18" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
+      <c r="A18" s="17" t="n"/>
+      <c r="B18" s="17" t="n"/>
       <c r="C18" s="85" t="n"/>
       <c r="D18" s="86" t="n"/>
-      <c r="E18" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-004</t>
-        </is>
-      </c>
+      <c r="E18" s="17" t="n"/>
       <c r="F18" s="86" t="n"/>
-      <c r="G18" s="18" t="inlineStr">
-        <is>
-          <t>0 - 750</t>
-        </is>
-      </c>
-      <c r="H18" s="61" t="inlineStr">
-        <is>
-          <t>entrega</t>
-        </is>
-      </c>
+      <c r="G18" s="18" t="n"/>
+      <c r="H18" s="61" t="n"/>
       <c r="I18" s="17" t="n"/>
       <c r="J18" s="17" t="n"/>
       <c r="K18" s="86" t="n"/>
     </row>
-    <row r="19" ht="57.75" customHeight="1" s="6">
-      <c r="A19" s="17" t="inlineStr">
-        <is>
-          <t>03/02/2025</t>
-        </is>
-      </c>
-      <c r="B19" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C19" s="85" t="n"/>
-      <c r="D19" s="86" t="n"/>
-      <c r="E19" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-003</t>
-        </is>
-      </c>
-      <c r="F19" s="86" t="n"/>
-      <c r="G19" s="18" t="inlineStr">
-        <is>
-          <t>0 - 700, 0 - 750</t>
-        </is>
-      </c>
-      <c r="H19" s="61" t="inlineStr">
-        <is>
-          <t>entrega</t>
-        </is>
-      </c>
-      <c r="I19" s="17" t="n"/>
-      <c r="J19" s="17" t="n"/>
-      <c r="K19" s="86" t="n"/>
+    <row r="19" ht="12.75" customHeight="1" s="6">
+      <c r="A19" s="7" t="n"/>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n"/>
+      <c r="H19" s="7" t="n"/>
+      <c r="I19" s="7" t="n"/>
+      <c r="J19" s="7" t="n"/>
+      <c r="K19" s="7" t="n"/>
     </row>
     <row r="20" ht="12.75" customHeight="1" s="6">
       <c r="A20" s="7" t="n"/>
@@ -1442,18 +1326,15 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" s="6"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="24">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="K1:K4"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
     <mergeCell ref="C3:G4"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C13:E13"/>
